--- a/inst/data-demo/conjoint_form.xlsx
+++ b/inst/data-demo/conjoint_form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,12 +11,15 @@
     <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="opts" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">opts!$A$1:$D$28</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t>type</t>
   </si>
@@ -1026,112 +1029,196 @@
     <t>level</t>
   </si>
   <si>
+    <t>criteria_level</t>
+  </si>
+  <si>
     <t>CabezaFamilia</t>
   </si>
   <si>
     <t xml:space="preserve">Cabeza de familia: persona adulta sola (18+) sin dependientes o familia biparental.</t>
   </si>
   <si>
+    <t>head_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cabeza de familia: persona adulta sola (18+) con dependientes a cargo.</t>
   </si>
   <si>
+    <t>head_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cabeza de familia: adulto mayor, persona con discapacidad o persona LGBTIQ.</t>
   </si>
   <si>
+    <t>head_3</t>
+  </si>
+  <si>
     <t>PerfilesRiesgo</t>
   </si>
   <si>
     <t xml:space="preserve">Otros miembros del hogar: No hay perfiles específicos de riesgo.</t>
   </si>
   <si>
+    <t>riskprofile_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otros miembros del hogar: al menos uno es un adulto mayor o está en riesgo por ser LGBTIQ.</t>
   </si>
   <si>
+    <t>riskprofile_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otros miembros del hogar: al menos una persona embarazada O amamantando O hay un niño pequeño que necesita atención O persona con condiciones crónicas O discapacidades existentes.</t>
   </si>
   <si>
+    <t>riskprofile_3</t>
+  </si>
+  <si>
     <t>TasaDependencia</t>
   </si>
   <si>
     <t xml:space="preserve">Dependencia baja: Todos o casi todos los miembros están en edad y capacidad de trabajar.</t>
   </si>
   <si>
+    <t>dependency_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dependencia media-baja: Más de la mitad de los miembros están en edad y capacidad de trabajar.</t>
   </si>
   <si>
+    <t>dependency_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dependencia media-alta: Menos de la mitad de los miembros están en edad y capacidad de trabajar.</t>
   </si>
   <si>
+    <t>dependency_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dependencia alta: Nadie en el grupo familiar está en edad o capacidad para trabajar.</t>
   </si>
   <si>
+    <t>dependency_4</t>
+  </si>
+  <si>
     <t>Comidas</t>
   </si>
   <si>
     <t xml:space="preserve">El hogar come dos o más comidas al día.</t>
   </si>
   <si>
+    <t>food_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">El hogar come una o menos comidas al día.</t>
   </si>
   <si>
+    <t>food_2</t>
+  </si>
+  <si>
     <t>ArticulosHigiene</t>
   </si>
   <si>
     <t xml:space="preserve">El hogar pudo comprar los artículos de higiene (jabón, productos de higiene femenina, pañales, cepillo/pasta de dientes) en el último mes.</t>
   </si>
   <si>
+    <t>hygiene_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">El hogar no pudo comprar los artículos de higiene (jabón, productos de higiene femenina, pañales, cepillo/pasta de dientes) en el último mes.</t>
   </si>
   <si>
+    <t>hygiene_2</t>
+  </si>
+  <si>
     <t>TipoAcomodacion</t>
   </si>
   <si>
     <t xml:space="preserve">El hogar vive en un apartamento o casa, propia o alquilada.</t>
   </si>
   <si>
+    <t>shelter_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hogar vive en apartamento o casa compartida con otras familias / Hospedado por familia o amigos / Hotel u hostal pagado con recursos propios.</t>
   </si>
   <si>
+    <t>shelter_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">El hogar vive en un alojamiento colectivo a largo plazo (albergue).</t>
   </si>
   <si>
+    <t>shelter_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hogar está en situación de calle / Vivienda improvisada o informal / Alojamiento colectivo de corta duración (albergue).</t>
   </si>
   <si>
+    <t>shelter_4</t>
+  </si>
+  <si>
     <t>FuenteIngresos</t>
   </si>
   <si>
     <t xml:space="preserve">La fuente principal de ingresos del hogar los genera algún miembro del hogar por su propia cuenta (trabajo, venta ambulante, etc.).</t>
   </si>
   <si>
+    <t>income_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">La fuente principal de ingresos del hogar depende de otras personas que no son miembros del hogar (recibe remesas, donaciones, etc.)</t>
   </si>
   <si>
+    <t>income_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">El hogar no ha tenido ninguna fuente de ingresos o dinero en la última semana. </t>
   </si>
   <si>
+    <t>income_3</t>
+  </si>
+  <si>
     <t>AfrontamientoNeg</t>
   </si>
   <si>
     <t xml:space="preserve">NO UTILIZAN mecanismos de afrontamiento negativos O uso de mecanismos de afrontamiento neutrales.</t>
   </si>
   <si>
+    <t>copingneg_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Uso de mecanismos de afrontamiento ESTRESADOS (restricción del consumo de alimentos para adultos, trabajo en especie, mudanza a viviendas más baratas, etc.)</t>
   </si>
   <si>
+    <t>copingneg_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Uso de mecanismos de afrontamiento negativos EXTREMOS (matrimonio infantil, trabajo sexual, mendigar, recoger restos de la basura, etc.)</t>
   </si>
   <si>
+    <t>copingneg_3</t>
+  </si>
+  <si>
     <t>IncidenteProt</t>
   </si>
   <si>
     <t xml:space="preserve">Nadie en el hogar ha experimentado incidentes de protección. </t>
   </si>
   <si>
+    <t>protinci_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alguien en el hogar ha experimentado un incidente de protección "medio-grave" en los últimos 3 meses.</t>
   </si>
   <si>
+    <t>protinci_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alguien en el hogar ha experimentado un incidente de protección "grave" en los últimos 3 meses.</t>
+  </si>
+  <si>
+    <t>protinci_3</t>
   </si>
 </sst>
 </file>
@@ -1314,15 +1401,11 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1330,9 +1413,11 @@
     <xf fontId="1" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="2" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="1" fillId="5" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,6 +1439,7 @@
     <xf fontId="1" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="4" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1936,10 +2022,10 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1948,10 +2034,10 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1960,10 +2046,10 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1975,14 +2061,14 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="1"/>
       <c r="K5" t="s">
         <v>19</v>
       </c>
@@ -1997,14 +2083,14 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="1"/>
       <c r="K6" t="s">
         <v>24</v>
       </c>
@@ -2019,14 +2105,14 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="1"/>
       <c r="K7" t="s">
         <v>29</v>
       </c>
@@ -2041,14 +2127,14 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="1"/>
       <c r="I8" t="b">
         <v>1</v>
       </c>
@@ -2063,14 +2149,14 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2079,17 +2165,17 @@
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="1"/>
       <c r="G10" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2101,14 +2187,14 @@
       <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2120,14 +2206,14 @@
       <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2139,14 +2225,14 @@
       <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2158,14 +2244,14 @@
       <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2177,14 +2263,14 @@
       <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2196,14 +2282,14 @@
       <c r="C16" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="1"/>
       <c r="I16" t="b">
         <v>1</v>
       </c>
@@ -2221,14 +2307,14 @@
       <c r="C17" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="1"/>
       <c r="I17" t="b">
         <v>1</v>
       </c>
@@ -2246,14 +2332,14 @@
       <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="1"/>
       <c r="I18" t="b">
         <v>1</v>
       </c>
@@ -2271,14 +2357,14 @@
       <c r="C19" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="1"/>
       <c r="I19" t="b">
         <v>1</v>
       </c>
@@ -2296,14 +2382,14 @@
       <c r="C20" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="1"/>
       <c r="I20" t="b">
         <v>1</v>
       </c>
@@ -2321,14 +2407,14 @@
       <c r="C21" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="1"/>
       <c r="I21" t="b">
         <v>1</v>
       </c>
@@ -2346,14 +2432,14 @@
       <c r="C22" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="1"/>
       <c r="I22" t="b">
         <v>1</v>
       </c>
@@ -2371,14 +2457,14 @@
       <c r="C23" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="1"/>
       <c r="I23" t="b">
         <v>1</v>
       </c>
@@ -2396,14 +2482,14 @@
       <c r="C24" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="1"/>
       <c r="I24" t="b">
         <v>1</v>
       </c>
@@ -2421,14 +2507,14 @@
       <c r="C25" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="1"/>
       <c r="I25" t="b">
         <v>1</v>
       </c>
@@ -2446,14 +2532,14 @@
       <c r="C26" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="1"/>
       <c r="I26" t="b">
         <v>1</v>
       </c>
@@ -2471,14 +2557,14 @@
       <c r="C27" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="1"/>
       <c r="I27" t="b">
         <v>1</v>
       </c>
@@ -2496,14 +2582,14 @@
       <c r="C28" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="1"/>
       <c r="I28" t="b">
         <v>1</v>
       </c>
@@ -2515,10 +2601,10 @@
       <c r="A29" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2530,14 +2616,14 @@
       <c r="C30" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2549,14 +2635,14 @@
       <c r="C31" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="1"/>
       <c r="I31" t="b">
         <v>1</v>
       </c>
@@ -2574,14 +2660,14 @@
       <c r="C32" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="1"/>
       <c r="I32" t="b">
         <v>1</v>
       </c>
@@ -2599,14 +2685,14 @@
       <c r="C33" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="1"/>
       <c r="I33" t="b">
         <v>1</v>
       </c>
@@ -2624,14 +2710,14 @@
       <c r="C34" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="1"/>
       <c r="I34" t="b">
         <v>1</v>
       </c>
@@ -2649,14 +2735,14 @@
       <c r="C35" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="1"/>
       <c r="I35" t="b">
         <v>1</v>
       </c>
@@ -2674,14 +2760,14 @@
       <c r="C36" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="1"/>
       <c r="I36" t="b">
         <v>1</v>
       </c>
@@ -2699,14 +2785,14 @@
       <c r="C37" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="1"/>
       <c r="I37" t="b">
         <v>1</v>
       </c>
@@ -2724,14 +2810,14 @@
       <c r="C38" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2" t="s">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="1"/>
       <c r="I38" t="b">
         <v>1</v>
       </c>
@@ -2749,14 +2835,14 @@
       <c r="C39" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="1"/>
       <c r="I39" t="b">
         <v>1</v>
       </c>
@@ -2774,14 +2860,14 @@
       <c r="C40" t="s">
         <v>161</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2" t="s">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="1"/>
       <c r="I40" t="b">
         <v>1</v>
       </c>
@@ -2799,14 +2885,14 @@
       <c r="C41" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="1"/>
       <c r="I41" t="b">
         <v>1</v>
       </c>
@@ -2818,10 +2904,10 @@
       <c r="A42" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -2833,14 +2919,14 @@
       <c r="C43" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2" t="s">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -2852,14 +2938,14 @@
       <c r="C44" t="s">
         <v>173</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="1"/>
       <c r="I44" t="b">
         <v>1</v>
       </c>
@@ -2877,14 +2963,14 @@
       <c r="C45" t="s">
         <v>177</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2" t="s">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="1"/>
       <c r="I45" t="b">
         <v>1</v>
       </c>
@@ -2902,14 +2988,14 @@
       <c r="C46" t="s">
         <v>181</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2" t="s">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="1"/>
       <c r="I46" t="b">
         <v>1</v>
       </c>
@@ -2927,14 +3013,14 @@
       <c r="C47" t="s">
         <v>185</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2" t="s">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="1"/>
       <c r="I47" t="b">
         <v>1</v>
       </c>
@@ -2952,14 +3038,14 @@
       <c r="C48" t="s">
         <v>189</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2" t="s">
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="1"/>
       <c r="I48" t="b">
         <v>1</v>
       </c>
@@ -2977,14 +3063,14 @@
       <c r="C49" t="s">
         <v>193</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2" t="s">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="1"/>
       <c r="I49" t="b">
         <v>1</v>
       </c>
@@ -3002,14 +3088,14 @@
       <c r="C50" t="s">
         <v>197</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="1"/>
       <c r="I50" t="b">
         <v>1</v>
       </c>
@@ -3027,14 +3113,14 @@
       <c r="C51" t="s">
         <v>201</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2" t="s">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="1"/>
       <c r="I51" t="b">
         <v>1</v>
       </c>
@@ -3052,14 +3138,14 @@
       <c r="C52" t="s">
         <v>205</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2" t="s">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="1"/>
       <c r="I52" t="b">
         <v>1</v>
       </c>
@@ -3077,14 +3163,14 @@
       <c r="C53" t="s">
         <v>209</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2" t="s">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="1"/>
       <c r="I53" t="b">
         <v>1</v>
       </c>
@@ -3102,14 +3188,14 @@
       <c r="C54" t="s">
         <v>213</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2" t="s">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="1"/>
       <c r="I54" t="b">
         <v>1</v>
       </c>
@@ -3127,14 +3213,14 @@
       <c r="C55" t="s">
         <v>217</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2" t="s">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="1"/>
       <c r="I55" t="b">
         <v>1</v>
       </c>
@@ -3146,19 +3232,19 @@
       <c r="A56" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -3170,14 +3256,14 @@
       <c r="C58" t="s">
         <v>222</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2" t="s">
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="1"/>
       <c r="I58" t="b">
         <v>1</v>
       </c>
@@ -3206,13 +3292,13 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3223,13 +3309,13 @@
       <c r="B2" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3240,13 +3326,13 @@
       <c r="B3" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3257,13 +3343,13 @@
       <c r="B4" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>3</v>
       </c>
     </row>
@@ -3274,13 +3360,13 @@
       <c r="B5" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>4</v>
       </c>
     </row>
@@ -3291,13 +3377,13 @@
       <c r="B6" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>5</v>
       </c>
     </row>
@@ -3308,13 +3394,13 @@
       <c r="B7" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>6</v>
       </c>
     </row>
@@ -3325,13 +3411,13 @@
       <c r="B8" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>7</v>
       </c>
     </row>
@@ -3342,13 +3428,13 @@
       <c r="B9" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>8</v>
       </c>
     </row>
@@ -3359,13 +3445,13 @@
       <c r="B10" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3376,13 +3462,13 @@
       <c r="B11" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D11" t="s">
         <v>245</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3393,13 +3479,13 @@
       <c r="B12" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D12" t="s">
         <v>248</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3462,39 +3548,49 @@
     <col customWidth="1" min="1" max="1" width="23.28125"/>
     <col customWidth="1" min="2" max="2" width="35.140625"/>
     <col customWidth="1" min="3" max="3" width="157.00390625"/>
+    <col customWidth="1" min="4" max="4" width="14.8515625"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>257</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>259</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>260</v>
+      <c r="B3" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -3502,10 +3598,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>261</v>
+        <v>264</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -3513,21 +3612,27 @@
         <v>61</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>264</v>
+      <c r="B6" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
@@ -3535,10 +3640,13 @@
         <v>61</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>265</v>
+        <v>271</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
@@ -3546,32 +3654,42 @@
         <v>61</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>267</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>268</v>
+      <c r="B9" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>266</v>
+      <c r="B10" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>269</v>
+        <v>278</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -3579,10 +3697,13 @@
         <v>61</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>270</v>
+        <v>280</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -3590,10 +3711,13 @@
         <v>120</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>272</v>
+        <v>282</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -3601,10 +3725,13 @@
         <v>120</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>273</v>
+        <v>285</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -3612,10 +3739,13 @@
         <v>120</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>275</v>
+        <v>287</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -3623,10 +3753,13 @@
         <v>120</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>276</v>
+        <v>290</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -3634,32 +3767,41 @@
         <v>120</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>278</v>
+        <v>293</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>277</v>
+      <c r="B17" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>279</v>
+        <v>295</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>277</v>
+      <c r="B18" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>280</v>
+        <v>297</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
@@ -3667,10 +3809,13 @@
         <v>120</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>281</v>
+        <v>299</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
@@ -3678,10 +3823,13 @@
         <v>168</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>283</v>
+        <v>302</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
@@ -3689,10 +3837,13 @@
         <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>282</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>284</v>
+        <v>301</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
@@ -3700,10 +3851,13 @@
         <v>168</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>285</v>
+        <v>301</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
@@ -3711,21 +3865,27 @@
         <v>168</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>287</v>
+        <v>309</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>288</v>
+      <c r="B24" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
@@ -3733,10 +3893,13 @@
         <v>168</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>289</v>
+        <v>313</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
@@ -3744,21 +3907,27 @@
         <v>168</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>291</v>
+        <v>316</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>292</v>
+      <c r="B27" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
@@ -3766,33 +3935,37 @@
         <v>168</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>293</v>
+        <v>320</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D28"/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
